--- a/biology/Zoologie/Cricetidae/Cricetidae.xlsx
+++ b/biology/Zoologie/Cricetidae/Cricetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cricetidae sont une famille de rongeurs. Auparavant le contenu de cette famille était placé avec d'autres sous la famille des Muridae, mais les études récentes tendent à distinguer six familles, dont Cricetidae, au sein d'une super-famille, les Muroidea.
-Cette famille a été créée en 1817 par le zoologiste russe d'origine allemande Johann Fischer von Waldheim (1771-1853)[1].
-Des modélisations de la structure des protéines suggèrent que les Cricetidae ont une protéine ACE2 qui les rend très vulnérables à l'infection par le coronavirus zoonotique SARS-CoV-2, responsable de la pandémie de COVID-19[2].
+Cette famille a été créée en 1817 par le zoologiste russe d'origine allemande Johann Fischer von Waldheim (1771-1853).
+Des modélisations de la structure des protéines suggèrent que les Cricetidae ont une protéine ACE2 qui les rend très vulnérables à l'infection par le coronavirus zoonotique SARS-CoV-2, responsable de la pandémie de COVID-19.
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (24 mai 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (24 mai 2012) :
 sous-famille Arvicolinae - campagnols, lemmings et Rat musqué
 sous-famille Cricetinae - Hamsters
 sous-famille Lophiomyinae - 1 seule espèce, le Hamster d'Imhause ou Rat à crête (Lophiomys imhausi)
 sous-famille Neotominae - des souris et rats
 sous-famille Sigmodontinae - des souris et rats
 sous-famille Tylomyinae
-Selon Paleobiology Database                   (17 avril 2018)[4] :
+Selon Paleobiology Database                   (17 avril 2018) :
 genre Prospalax, disparu</t>
         </is>
       </c>
